--- a/va_facility_data_2025-02-20/Northwest VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northwest VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra24e51e5595a4bd3b0a98c2d8d580fdc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc123675dabd2408e8acbaf30b300796f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R91604a703e3c413db6b09d9b8d44d79c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3dd86468c19a4e0c88ab43b3ec4e9d65"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Reee334e60ed043fa80abe131ee29a97e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e53052be2ab4ca6ac22851c1f432514"/>
   </x:sheets>
 </x:workbook>
 </file>
